--- a/获取捐款类信息/encrypted_alumni.xlsx
+++ b/获取捐款类信息/encrypted_alumni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blhq\Desktop\paChong\获取捐款类信息\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B6FA35-D89C-4CFA-B91B-E6D3A7CB318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA5EF63-1831-4A15-BF8D-AA635A55E112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5970" yWindow="700" windowWidth="17620" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="200" yWindow="340" windowWidth="21310" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="已恢复_Sheet1" sheetId="1" r:id="rId1"/>
@@ -9064,8 +9064,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
-      <selection activeCell="B492" sqref="B492"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E219" sqref="E219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
